--- a/custom/tpl/TEPRA-P.xlsx
+++ b/custom/tpl/TEPRA-P.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\smep19\custom\tpl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E6BBAED-884C-46D6-B3E3-6880043E3EC6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3345E8CB-F230-4E04-9D65-2C8F4545F907}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36F5AD26-765D-45B4-9883-8D3E8E72F32A}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="34">
   <si>
     <t>LAPORAN PERENCANAAN TEPRA</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Paket</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -323,6 +326,13 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -335,13 +345,6 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -659,7 +662,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -682,23 +685,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -721,55 +724,55 @@
       <c r="B5" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="16" t="s">
+      <c r="F7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
     </row>
     <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="17">
+      <c r="F8" s="20">
         <f>B11+H11</f>
         <v>0</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="7"/>
       <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="H10" s="16" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="H10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="17">
+      <c r="B11" s="20">
         <f>B14+E14</f>
         <v>0</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="H11" s="17">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="H11" s="20">
         <f>H14+K14</f>
         <v>0</v>
       </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
@@ -778,37 +781,37 @@
       <c r="K12" s="8"/>
     </row>
     <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="E13" s="16" t="s">
+      <c r="C13" s="19"/>
+      <c r="E13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="F13" s="19"/>
+      <c r="H13" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="K13" s="16" t="s">
+      <c r="I13" s="19"/>
+      <c r="K13" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
     </row>
     <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="K14" s="17">
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="K14" s="20">
         <f>I18+M18</f>
         <v>0</v>
       </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
     </row>
     <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
@@ -819,34 +822,37 @@
       <c r="I15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="J15" s="22"/>
+      <c r="J15" s="17"/>
       <c r="K15" s="13"/>
       <c r="L15" s="13"/>
-      <c r="M15" s="21"/>
+      <c r="M15" s="16"/>
     </row>
     <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J16" s="7"/>
       <c r="M16" s="7"/>
     </row>
     <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="16" t="s">
+      <c r="I17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="M17" s="16" t="s">
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="M17" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
     </row>
     <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="F18" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I19" s="9"/>
@@ -869,61 +875,61 @@
       </c>
     </row>
     <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18" t="s">
+      <c r="M22" s="21"/>
+      <c r="N22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="18"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18" t="s">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18" t="s">
+      <c r="E23" s="21"/>
+      <c r="F23" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18" t="s">
+      <c r="G23" s="21"/>
+      <c r="H23" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18" t="s">
+      <c r="I23" s="21"/>
+      <c r="J23" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18" t="s">
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="18"/>
+      <c r="O23" s="21"/>
     </row>
     <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="18"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -1130,6 +1136,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
@@ -1146,19 +1165,6 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="M17:O17"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/custom/tpl/TEPRA-P.xlsx
+++ b/custom/tpl/TEPRA-P.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\smep19\custom\tpl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3345E8CB-F230-4E04-9D65-2C8F4545F907}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{36F5AD26-765D-45B4-9883-8D3E8E72F32A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Lembar1" sheetId="1" r:id="rId1"/>
@@ -143,7 +137,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,7 +279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -330,20 +324,23 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -405,7 +402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -457,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -651,65 +648,65 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{244A1DDF-AE4F-43B0-BFB5-AAC47E573818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.81640625" customWidth="1"/>
-    <col min="2" max="2" width="7.26953125" customWidth="1"/>
-    <col min="3" max="3" width="17.81640625" customWidth="1"/>
-    <col min="4" max="4" width="7.26953125" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="6" max="6" width="7.26953125" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" customWidth="1"/>
-    <col min="9" max="9" width="17.81640625" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" customWidth="1"/>
-    <col min="11" max="11" width="17.81640625" customWidth="1"/>
-    <col min="12" max="12" width="7.26953125" customWidth="1"/>
-    <col min="13" max="13" width="17.81640625" customWidth="1"/>
-    <col min="14" max="14" width="7.26953125" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" customWidth="1"/>
+    <col min="15" max="15" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18.600000000000001" x14ac:dyDescent="0.45">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+    </row>
+    <row r="3" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -717,103 +714,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
     </row>
-    <row r="7" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F7" s="19" t="s">
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-    </row>
-    <row r="8" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F8" s="20">
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="18">
         <f>B11+H11</f>
         <v>0</v>
       </c>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-    </row>
-    <row r="9" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E9" s="7"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="19" t="s">
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="H10" s="19" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="H10" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-    </row>
-    <row r="11" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="20">
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="18">
         <f>B14+E14</f>
         <v>0</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="H11" s="20">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="H11" s="18">
         <f>H14+K14</f>
         <v>0</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="8"/>
       <c r="E12" s="8"/>
       <c r="H12" s="8"/>
       <c r="K12" s="8"/>
     </row>
-    <row r="13" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="19" t="s">
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="E13" s="19" t="s">
+      <c r="C13" s="22"/>
+      <c r="E13" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="H13" s="19" t="s">
+      <c r="F13" s="22"/>
+      <c r="H13" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="K13" s="19" t="s">
+      <c r="I13" s="22"/>
+      <c r="K13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-    </row>
-    <row r="14" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="K14" s="20">
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+    </row>
+    <row r="14" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+      <c r="K14" s="18">
         <f>I18+M18</f>
         <v>0</v>
       </c>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-    </row>
-    <row r="15" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+    </row>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="E15" s="12"/>
@@ -827,34 +824,34 @@
       <c r="L15" s="13"/>
       <c r="M15" s="16"/>
     </row>
-    <row r="16" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I17" s="19" t="s">
+    <row r="17" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I17" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="M17" s="19" t="s">
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="M17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-    </row>
-    <row r="18" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+    </row>
+    <row r="18" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="F18" t="s">
         <v>33</v>
       </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-    </row>
-    <row r="19" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+    </row>
+    <row r="19" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="I19" s="9"/>
       <c r="J19" s="10">
         <f>N29-H15-N19</f>
@@ -869,67 +866,67 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="O21" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+    <row r="22" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21" t="s">
+      <c r="M22" s="20"/>
+      <c r="N22" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="O22" s="21"/>
-    </row>
-    <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21" t="s">
+      <c r="O22" s="20"/>
+    </row>
+    <row r="23" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21" t="s">
+      <c r="E23" s="20"/>
+      <c r="F23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21" t="s">
+      <c r="G23" s="20"/>
+      <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21" t="s">
+      <c r="I23" s="20"/>
+      <c r="J23" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21" t="s">
+      <c r="K23" s="20"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="20"/>
+      <c r="N23" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="O23" s="21"/>
-    </row>
-    <row r="24" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="21"/>
+      <c r="O23" s="20"/>
+    </row>
+    <row r="24" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="20"/>
       <c r="B24" s="2" t="s">
         <v>21</v>
       </c>
@@ -973,7 +970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
@@ -998,8 +995,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+    <row r="26" spans="1:15" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="4"/>
@@ -1023,8 +1020,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+    <row r="27" spans="1:15" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="4"/>
@@ -1048,7 +1045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>28</v>
       </c>
@@ -1073,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
@@ -1136,19 +1133,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="L22:M23"/>
-    <mergeCell ref="N22:O22"/>
-    <mergeCell ref="N23:O23"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
@@ -1165,6 +1149,19 @@
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="K14:M14"/>
     <mergeCell ref="M17:O17"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="L22:M23"/>
+    <mergeCell ref="N22:O22"/>
+    <mergeCell ref="N23:O23"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.39370078740157483" bottom="0.59055118110236227" header="0.31496062992125984" footer="0.31496062992125984"/>
